--- a/Sorted_Pairs.xlsx
+++ b/Sorted_Pairs.xlsx
@@ -1,37 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+  <si>
+    <t>Stock_1</t>
+  </si>
+  <si>
+    <t>Stock_2</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Cointegration</t>
+  </si>
+  <si>
+    <t>Spread_ADF</t>
+  </si>
+  <si>
+    <t>Ratio_ADF</t>
+  </si>
+  <si>
+    <t>AWK</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>DTE</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>AEP</t>
+  </si>
+  <si>
+    <t>CPT</t>
+  </si>
+  <si>
+    <t>PFG</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>PRU</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>KMB</t>
+  </si>
+  <si>
+    <t>NEE</t>
+  </si>
+  <si>
+    <t>WEC</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>PEG</t>
+  </si>
+  <si>
+    <t>PNC</t>
+  </si>
+  <si>
+    <t>VRSK</t>
+  </si>
+  <si>
+    <t>SYF</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>SRE</t>
+  </si>
+  <si>
+    <t>PSA</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>TFC</t>
+  </si>
+  <si>
+    <t>ZION</t>
+  </si>
+  <si>
+    <t>DUK</t>
+  </si>
+  <si>
+    <t>MKC</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +174,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,580 +490,474 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock_1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Stock_2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Correlation</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cointegration</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Spread_ADF</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Ratio_ADF</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AWK</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NEE</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
         <v>0.9868568115394872</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.002170296244359329</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.8875227705044594</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.0004791562263752452</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>WEC</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
         <v>0.9805179496276685</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.002446338611298807</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.004369302557719054</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.000846420301143742</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CFG</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
         <v>0.9823147370618126</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.01389850885241204</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.5308970589810956</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.0006392880800180128</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DTE</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PEG</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
         <v>0.9673594718837637</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.000884376996238171</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.308323154147549</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.0002929419642600224</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BAC</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PNC</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
         <v>0.984833159363554</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.01739329281857443</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.9154282930625082</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.001534725984445908</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>JPM</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MET</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
         <v>0.9685020620718218</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.01391569668747891</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.7826663417194497</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.004255041314239258</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>VRSK</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
         <v>0.9645913152752947</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.01356743964429978</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.1022365612507203</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.00191245311423898</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>DFS</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SYF</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
         <v>0.9783016734527809</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.01593526422457463</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.824149846284554</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.01533625417706297</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AMP</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
         <v>0.9793277646520188</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.02740623657122312</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.9542769139825512</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.01441537743722146</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MET</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PNC</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
         <v>0.9690950745827942</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.02827368794850181</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.8872240116385294</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.00526041211033841</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AEP</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SRE</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
         <v>0.9362763969979901</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.004733963088229222</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>0.006798771669044042</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.0009671700733779404</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>CPT</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PSA</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
         <v>0.9650455086871408</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.03431230265254772</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>0.9600399895421718</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.01521872524003652</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>PFG</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PNC</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
         <v>0.926319573891236</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.01351915377472478</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>0.8332251367984688</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.005605367846180809</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>CMS</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>0.9254266578531388</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.0008832978146330133</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>0.001138458200023304</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.02666797019989287</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>USB</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
         <v>0.9369463624123042</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.03100621528411075</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>0.01341968256071151</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.01109661819858037</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>PFG</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TFC</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
         <v>0.9208637537357095</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.02330949503793053</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>0.03804889019402789</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.002554345928527448</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>CFG</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>PFG</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
         <v>0.9466036634271299</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.03805506128043711</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>0.0591264538895834</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.02734477515145978</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>PRU</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ZION</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
         <v>0.9294788004409813</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.04695591870096086</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>0.03919463450642241</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.008436838991548888</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>USB</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
         <v>0.9004452302708225</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.01547814040022828</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>0.002656637299962465</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.01281096959316444</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>BAC</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>PFG</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
         <v>0.9134098614943262</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.03330321488395149</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>0.04958408810007939</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.01620734655377633</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>DTE</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DUK</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
         <v>0.937942205274565</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.03403165701345536</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>0.03516630531041503</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>0.04511340064358492</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>KMB</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MKC</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
         <v>0.9188970369417172</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.04590572499065328</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>0.01319639958916551</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.01677742331067596</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>